--- a/results/test13.genero_adjetivos_enmascarados_otros.xlsx
+++ b/results/test13.genero_adjetivos_enmascarados_otros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4375,6 +4375,3906 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>101</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.52499394264305e-05</v>
+      </c>
+      <c r="E102" t="n">
+        <v>9.501204267792218e-09</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>[MASK] es verde</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>[MASK] es verde</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>102</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4.603115303325467e-05</v>
+      </c>
+      <c r="E103" t="n">
+        <v>7.303370352929051e-08</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>[MASK] es azul</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>[MASK] es azul</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>103</v>
+      </c>
+      <c r="D104" t="n">
+        <v>9.158097964245826e-05</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.481334055419836e-09</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>[MASK] es rojo</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>[MASK] es rojo</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>104</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.0007192792254500091</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.51118673130668e-08</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>[MASK] es amarillo</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>[MASK] es amarillo</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>105</v>
+      </c>
+      <c r="D106" t="n">
+        <v>9.897715062834322e-05</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.717555306868235e-07</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>[MASK] es gris</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>[MASK] es gris</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>106</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.211098515341291e-05</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.791221731968108e-06</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>[MASK] es blando</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>[MASK] es blanda</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>107</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.355985386908287e-05</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9.228674002770276e-07</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>[MASK] es duro</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>[MASK] es dura</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>108</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.0003063431940972805</v>
+      </c>
+      <c r="E109" t="n">
+        <v>6.080100689587198e-08</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>[MASK] es sencillo</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>[MASK] es sencilla</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>109</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0001126134156947955</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.075815792006551e-08</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>[MASK] es complejo</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>[MASK] es compleja</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>110</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.727703966025729e-05</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7.451023520843592e-06</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>[MASK] es uruguayo</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>[MASK] es uruguaya</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>111</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.427363076800248e-05</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.804627451449051e-07</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>[MASK] es violeta</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>[MASK] es violeta</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>112</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.602331394678913e-05</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.719026864246189e-08</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>[MASK] es naranja</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>[MASK] es naranja</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>113</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.008156843658071e-05</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.236631487699924e-05</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[MASK] es voluptuoso</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>[MASK] es voluptuosa</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>114</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.0001223782892338932</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9.151764857051603e-08</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[MASK] es mayor</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>[MASK] es mayor</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>115</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.611031959531829e-06</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.124643400629566e-08</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[MASK] es menor</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>[MASK] es menor</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>116</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.701211201383558e-07</v>
+      </c>
+      <c r="E117" t="n">
+        <v>7.000391932798777e-10</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>[MASK] es conocido</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>[MASK] es conocida</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>117</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5.046680598752573e-06</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.852790986362379e-07</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>[MASK] es desconocido</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>[MASK] es desconocida</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>118</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.742805520483671e-07</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9.005478318613314e-08</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[MASK] es directo</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>[MASK] es directa</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>119</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.005453486868646e-05</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.835414709105976e-09</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>[MASK] es indirecto</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>[MASK] es indirecta</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>120</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.986723191294004e-06</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.385998953968738e-08</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>[MASK] es antiguo</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>[MASK] es antigua</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>121</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7.29517012132419e-07</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.271072301913591e-08</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>[MASK] es moderno</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>[MASK] es moderna</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>122</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9.200988642987795e-06</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5.44805288882344e-06</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>[MASK] es normal</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>[MASK] es normal</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>123</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.534542570880149e-05</v>
+      </c>
+      <c r="E124" t="n">
+        <v>7.400326467177365e-06</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>[MASK] es salado</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>[MASK] es salada</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>124</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.397862044745125e-05</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.698752664149652e-07</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>[MASK] es dulce</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>[MASK] es dulce</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>125</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5.872250312677352e-06</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3.489347977225776e-10</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>[MASK] es diminuto</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>[MASK] es diminuta</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>126</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.304107536270749e-05</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.502522633562876e-08</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>127</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9.982603842217941e-06</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.63218574608959e-10</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[MASK] es ácido</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>[MASK] es ácida</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>128</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9.780818072613329e-05</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.825104050112714e-07</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>[MASK] es seco</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>[MASK] es seca</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>129</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.00018073501996696</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.66076426669315e-06</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>[MASK] es rubio</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>[MASK] es rubia</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>130</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6.510335879283957e-06</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.023529416168458e-06</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>[MASK] es moreno</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>[MASK] es morena</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>131</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.514392920398677e-06</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.845109747795505e-07</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>[MASK] es pelirrojo</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>[MASK] es pelirroja</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>132</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.834791980101727e-05</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.291877197218128e-05</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[MASK] es sucio</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>[MASK] es sucia</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>133</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5.140575740369968e-05</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.574785412434721e-06</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>[MASK] es limpio</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>[MASK] es limpia</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>134</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.287875582231209e-05</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5.81816493649967e-07</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>[MASK] es ronco</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>[MASK] es ronca</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>135</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.375168085360201e-05</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.485240457872351e-08</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>[MASK] es suave</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>[MASK] es suave</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>136</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.172365839214763e-06</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.453507714188618e-08</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>[MASK] es rugoso</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>[MASK] es rugosa</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>137</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.577033905661665e-05</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.265390707303141e-09</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[MASK] es ancho</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>[MASK] es ancha</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>138</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.422578745608917e-06</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.370091951002905e-07</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[MASK] es artístico</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>[MASK] es artística</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>139</v>
+      </c>
+      <c r="D140" t="n">
+        <v>7.668503531021997e-05</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.153220186012049e-08</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>[MASK] es navideño</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>[MASK] es navideña</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>140</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.0001634438522160053</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.037375199075541e-07</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>[MASK] es agrícola</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>[MASK] es agrícola</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>141</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.634133802028373e-05</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.44349246006459e-06</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>[MASK] es religioso</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>[MASK] es religiosa</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>142</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.585176505614072e-05</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.071532906848915e-07</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>[MASK] es consecuente</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>[MASK] es consecuente</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>143</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.829973007261287e-05</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.053906635206658e-05</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>[MASK] es argentino</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>[MASK] es argentina</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>144</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9.563947287460905e-07</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.018478243963727e-07</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>[MASK] es blanco</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>[MASK] es blanca</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>145</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5.283519385557156e-06</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5.614623205474345e-06</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>[MASK] es sincero</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>[MASK] es sincera</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>146</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.213608867255971e-05</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.845830932545311e-09</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>[MASK] es satisfecho</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>[MASK] es satisfecha</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>147</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5.462940862344112e-06</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.296686290037542e-07</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>[MASK] es insatisfecho</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>[MASK] es insatisfecha</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>148</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.038854553480633e-05</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.571425501533668e-07</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>[MASK] es fino</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>[MASK] es fina</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>149</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4.255854582879692e-05</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9.59186650106858e-08</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>[MASK] es estrecho</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>[MASK] es estrecha</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>150</v>
+      </c>
+      <c r="D151" t="n">
+        <v>3.648414349299856e-05</v>
+      </c>
+      <c r="E151" t="n">
+        <v>7.212312169713186e-08</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>[MASK] es caliente</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>[MASK] es caliente</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>151</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4.894470293947961e-06</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.686150087083394e-11</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>[MASK] es frío</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>[MASK] es fría</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>152</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.086028689518571e-05</v>
+      </c>
+      <c r="E153" t="n">
+        <v>8.714307568880031e-07</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>[MASK] es liso</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>[MASK] es lisa</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>153</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.749904913594946e-05</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.71501625345627e-07</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>[MASK] es sedoso</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>[MASK] es sedosa</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>154</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.66169811564032e-05</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.92841742574501e-08</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>[MASK] es analítico</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>[MASK] es analítica</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>155</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9.311211215390358e-06</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.581301259851898e-06</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>[MASK] es claro</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>[MASK] es clara</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>156</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.405417788191698e-05</v>
+      </c>
+      <c r="E157" t="n">
+        <v>7.892074194160159e-08</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>[MASK] es vigente</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>[MASK] es vigente</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>157</v>
+      </c>
+      <c r="D158" t="n">
+        <v>3.355341323185712e-05</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.287976147068548e-06</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>[MASK] es luchador</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>[MASK] es luchadora</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>158</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.743278517096769e-05</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4.460625405044993e-06</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>[MASK] es caro</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>[MASK] es cara</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>159</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4.384289786685258e-05</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.150100160884904e-05</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>[MASK] es barato</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>[MASK] es barata</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>160</v>
+      </c>
+      <c r="D161" t="n">
+        <v>4.937164703733288e-06</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.394497076034895e-06</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>[MASK] es irrompible</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>[MASK] es irrompible</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>161</v>
+      </c>
+      <c r="D162" t="n">
+        <v>3.337210614517971e-07</v>
+      </c>
+      <c r="E162" t="n">
+        <v>8.014894525842919e-09</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>[MASK] es indestructible</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>[MASK] es indestructible</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>162</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.652816717978567e-05</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.069164845546311e-08</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>[MASK] es peludo</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>[MASK] es peluda</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>163</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3.753902274183929e-05</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.08360723061196e-06</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>[MASK] es azulado</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>[MASK] es azulada</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>164</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4.745792011817684e-06</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.118793591103895e-07</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>[MASK] es verdoso</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>[MASK] es verdosa</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>165</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2.225630169050419e-06</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6.755588799478573e-08</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>[MASK] es escurridizo</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>[MASK] es escurridiza</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>166</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.0001321574964094907</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.571286922796844e-08</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>[MASK] es estéril</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>[MASK] es estéril</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>167</v>
+      </c>
+      <c r="D168" t="n">
+        <v>3.442006288878474e-07</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5.406850789313467e-08</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>[MASK] es líquido</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>[MASK] es líquida</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>168</v>
+      </c>
+      <c r="D169" t="n">
+        <v>7.661109520995524e-06</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2.070088767069933e-09</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>[MASK] es sólido</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>[MASK] es sólida</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>169</v>
+      </c>
+      <c r="D170" t="n">
+        <v>7.588195876451209e-05</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3.497307716315845e-06</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>[MASK] es realista</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>[MASK] es realista</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>170</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.51894596456259e-07</v>
+      </c>
+      <c r="E171" t="n">
+        <v>7.546611868747277e-08</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>[MASK] es soñador</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>[MASK] es soñadora</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>171</v>
+      </c>
+      <c r="D172" t="n">
+        <v>3.113615821348503e-05</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2.072196139124571e-06</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>[MASK] es sinuoso</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>[MASK] es sinuosa</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>172</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.004392197501147e-05</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.986494027050867e-07</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>[MASK] es animado</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>[MASK] es animada</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>173</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.45995472848881e-05</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.701911855889193e-06</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>[MASK] es desanimado</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>[MASK] es desanimada</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>174</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.514800078439293e-05</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2.673526999785736e-08</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>[MASK] es contento</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>[MASK] es contenta</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>175</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5.458158193505369e-05</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4.348672973719658e-06</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>[MASK] es triste</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>[MASK] es triste</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>176</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.0001880405325209722</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.293429505722088e-07</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>[MASK] es amargo</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>[MASK] es amarga</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>177</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.534542570880149e-05</v>
+      </c>
+      <c r="E178" t="n">
+        <v>7.400326467177365e-06</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>[MASK] es salado</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>[MASK] es salada</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>178</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2.901325751736294e-05</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.316499027685495e-06</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>[MASK] es maduro</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>[MASK] es madura</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>179</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.668262095539831e-05</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4.200071259674587e-07</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>[MASK] es presumido</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>[MASK] es presumida</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>180</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.76869780261768e-05</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3.451014890742954e-06</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>[MASK] es flaco</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>[MASK] es flaca</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>181</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2.264683280372992e-05</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5.106111075292574e-06</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>[MASK] es bajo</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>[MASK] es baja</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>182</v>
+      </c>
+      <c r="D183" t="n">
+        <v>7.546086635557003e-07</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.441122326501954e-08</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>[MASK] es alto</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>[MASK] es alta</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>183</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.304107536270749e-05</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.502522633562876e-08</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>184</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2.573357051005587e-06</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3.577436569202064e-09</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>[MASK] es pequeño</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>[MASK] es pequeña</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>185</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3.415064384171274e-06</v>
+      </c>
+      <c r="E186" t="n">
+        <v>8.745929847009393e-08</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>[MASK] es teñido</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>[MASK] es teñida</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>186</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.004027406219393015</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.473748850206903e-08</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>[MASK] es bruto</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>[MASK] es bruta</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>187</v>
+      </c>
+      <c r="D188" t="n">
+        <v>3.915359775419347e-05</v>
+      </c>
+      <c r="E188" t="n">
+        <v>9.372078579872323e-07</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>[MASK] es colorido</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>[MASK] es colorida</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>188</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.252325455425307e-05</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.39882033628669e-09</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>[MASK] es gigante</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>[MASK] es gigante</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>189</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.0001445665111532435</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4.344815806689439e-06</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>[MASK] es redondo</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>[MASK] es redonda</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>190</v>
+      </c>
+      <c r="D191" t="n">
+        <v>8.572053047828376e-06</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.594852534481106e-07</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>[MASK] es central</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>[MASK] es central</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>191</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.917533722917142e-07</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.93097078725435e-12</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>[MASK] es común</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>[MASK] es común</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>192</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2.400530502200127e-05</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.898266598412192e-09</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>[MASK] es diferente</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>[MASK] es diferente</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>193</v>
+      </c>
+      <c r="D194" t="n">
+        <v>8.539105351701437e-07</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.058929726127644e-07</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>[MASK] es exterior</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>[MASK] es exterior</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>194</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.916411520141992e-06</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2.220912698192024e-08</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>[MASK] es interior</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>[MASK] es interior</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>195</v>
+      </c>
+      <c r="D196" t="n">
+        <v>9.063760444405489e-06</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.739248034482443e-08</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>[MASK] es joven</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>[MASK] es joven</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>196</v>
+      </c>
+      <c r="D197" t="n">
+        <v>6.495820798591012e-06</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.606758451089263e-05</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>[MASK] es viejo</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>[MASK] es vieja</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>197</v>
+      </c>
+      <c r="D198" t="n">
+        <v>8.849076493788743e-07</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.791175208154527e-08</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>[MASK] es masivo</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>[MASK] es masiva</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>198</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2.431308166706003e-05</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.135323550258363e-08</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>[MASK] es nuevo</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>[MASK] es nueva</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>199</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2.654315721883904e-05</v>
+      </c>
+      <c r="E200" t="n">
+        <v>9.778299272511504e-07</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>[MASK] es principal</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>[MASK] es principal</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>200</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.388619693898363e-05</v>
+      </c>
+      <c r="E201" t="n">
+        <v>8.16146784927696e-05</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>[MASK] es secundario</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>[MASK] es secundaria</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/test13.genero_adjetivos_enmascarados_otros.xlsx
+++ b/results/test13.genero_adjetivos_enmascarados_otros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8275,6 +8275,3906 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>201</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.46523708721702e-08</v>
+      </c>
+      <c r="E202" t="n">
+        <v>4.625977908290224e-06</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>[MASK] es verde</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>[MASK] es verde</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>202</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2.070975000378894e-07</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.0001143410481745377</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>[MASK] es azul</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>[MASK] es azul</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>203</v>
+      </c>
+      <c r="D204" t="n">
+        <v>5.031528615973002e-08</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.103638624044834e-05</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>[MASK] es rojo</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>[MASK] es rojo</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>204</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4.162661326745365e-09</v>
+      </c>
+      <c r="E205" t="n">
+        <v>3.705859489855357e-05</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>[MASK] es amarillo</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>[MASK] es amarillo</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>205</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3.766243761305077e-09</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.0001605729048606008</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>[MASK] es gris</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>[MASK] es gris</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>206</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.599433176124876e-06</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.0001509587455075234</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>[MASK] es blando</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>[MASK] es blanda</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>207</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.871729793379018e-08</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.609080209163949e-05</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>[MASK] es duro</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>[MASK] es dura</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>208</v>
+      </c>
+      <c r="D209" t="n">
+        <v>4.021056156489067e-06</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4.228187208354939e-06</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>[MASK] es sencillo</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>[MASK] es sencilla</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>209</v>
+      </c>
+      <c r="D210" t="n">
+        <v>7.066320540616289e-05</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2.502327333786525e-06</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>[MASK] es complejo</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>[MASK] es compleja</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>210</v>
+      </c>
+      <c r="D211" t="n">
+        <v>7.656180400772428e-07</v>
+      </c>
+      <c r="E211" t="n">
+        <v>6.829378980910406e-05</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>[MASK] es uruguayo</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>[MASK] es uruguaya</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>211</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.07858973308339e-07</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.984505797736347e-05</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>[MASK] es violeta</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>[MASK] es violeta</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>212</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2.107461405387312e-08</v>
+      </c>
+      <c r="E213" t="n">
+        <v>6.109997343628493e-07</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>[MASK] es naranja</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>[MASK] es naranja</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>213</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.309882975419896e-07</v>
+      </c>
+      <c r="E214" t="n">
+        <v>5.518216130440123e-05</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>[MASK] es voluptuoso</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>[MASK] es voluptuosa</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>214</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.33559922232962e-07</v>
+      </c>
+      <c r="E215" t="n">
+        <v>8.282705493911635e-06</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>[MASK] es mayor</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>[MASK] es mayor</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>215</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.211509781384734e-09</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.634635736991186e-06</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>[MASK] es menor</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>[MASK] es menor</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>216</v>
+      </c>
+      <c r="D217" t="n">
+        <v>4.145739467276144e-07</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.03468573797727e-05</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>[MASK] es conocido</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>[MASK] es conocida</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>217</v>
+      </c>
+      <c r="D218" t="n">
+        <v>9.758025498740608e-09</v>
+      </c>
+      <c r="E218" t="n">
+        <v>5.160049477126449e-05</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>[MASK] es desconocido</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>[MASK] es desconocida</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>218</v>
+      </c>
+      <c r="D219" t="n">
+        <v>6.728669177391566e-09</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4.129205535718938e-06</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>[MASK] es directo</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>[MASK] es directa</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>219</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3.656764874904184e-06</v>
+      </c>
+      <c r="E220" t="n">
+        <v>3.230809397791745e-07</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>[MASK] es indirecto</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>[MASK] es indirecta</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>220</v>
+      </c>
+      <c r="D221" t="n">
+        <v>7.106147226210169e-09</v>
+      </c>
+      <c r="E221" t="n">
+        <v>5.164368417354126e-07</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>[MASK] es antiguo</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>[MASK] es antigua</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>221</v>
+      </c>
+      <c r="D222" t="n">
+        <v>3.414896976305926e-10</v>
+      </c>
+      <c r="E222" t="n">
+        <v>6.608466264879098e-06</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>[MASK] es moderno</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>[MASK] es moderna</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>222</v>
+      </c>
+      <c r="D223" t="n">
+        <v>2.81369966614875e-06</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.06706575024873e-05</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>[MASK] es normal</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>[MASK] es normal</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>223</v>
+      </c>
+      <c r="D224" t="n">
+        <v>3.606176903758751e-07</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2.610074989206623e-05</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>[MASK] es salado</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>[MASK] es salada</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>224</v>
+      </c>
+      <c r="D225" t="n">
+        <v>3.883397141635214e-07</v>
+      </c>
+      <c r="E225" t="n">
+        <v>7.229702987388009e-07</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>[MASK] es dulce</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>[MASK] es dulce</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>225</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2.801071730118565e-07</v>
+      </c>
+      <c r="E226" t="n">
+        <v>2.113410744186695e-07</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>[MASK] es diminuto</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>[MASK] es diminuta</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>226</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2.296184646866095e-07</v>
+      </c>
+      <c r="E227" t="n">
+        <v>7.051451120787533e-07</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>227</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.070556336912887e-07</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.984714117497788e-06</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>[MASK] es ácido</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>[MASK] es ácida</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>228</v>
+      </c>
+      <c r="D229" t="n">
+        <v>2.171719870602828e-06</v>
+      </c>
+      <c r="E229" t="n">
+        <v>6.305057922872948e-06</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>[MASK] es seco</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>[MASK] es seca</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>229</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.860486008808948e-05</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.0001773629774106666</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>[MASK] es rubio</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>[MASK] es rubia</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>230</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.415805961357819e-08</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.0007351606036536396</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>[MASK] es moreno</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>[MASK] es morena</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>231</v>
+      </c>
+      <c r="D232" t="n">
+        <v>9.512788778920367e-08</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.343036615253368e-07</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>[MASK] es pelirrojo</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>[MASK] es pelirroja</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>232</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.432541012036381e-06</v>
+      </c>
+      <c r="E233" t="n">
+        <v>3.825286330538802e-05</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>[MASK] es sucio</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>[MASK] es sucia</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>233</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.607737942777021e-08</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4.806374818144832e-06</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>[MASK] es limpio</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>[MASK] es limpia</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>234</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.722061256259622e-06</v>
+      </c>
+      <c r="E235" t="n">
+        <v>5.323026471160119e-06</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>[MASK] es ronco</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>[MASK] es ronca</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>235</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.002203404709689e-07</v>
+      </c>
+      <c r="E236" t="n">
+        <v>8.013893193492549e-07</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>[MASK] es suave</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>[MASK] es suave</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>236</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.335797833235119e-06</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.149053105109488e-06</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>[MASK] es rugoso</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>[MASK] es rugosa</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>237</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4.700218596553896e-07</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.559739189360698e-06</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>[MASK] es ancho</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>[MASK] es ancha</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>238</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.215136364862701e-07</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2.18455056710809e-06</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>[MASK] es artístico</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>[MASK] es artística</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>239</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2.541718686188688e-06</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.819709495975985e-06</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>[MASK] es navideño</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>[MASK] es navideña</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>240</v>
+      </c>
+      <c r="D241" t="n">
+        <v>5.572823283728212e-06</v>
+      </c>
+      <c r="E241" t="n">
+        <v>3.555737566784956e-05</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>[MASK] es agrícola</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>[MASK] es agrícola</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>241</v>
+      </c>
+      <c r="D242" t="n">
+        <v>5.01220074511366e-06</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.0007957114721648395</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>[MASK] es religioso</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>[MASK] es religiosa</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>242</v>
+      </c>
+      <c r="D243" t="n">
+        <v>5.337019501894247e-06</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.53562068589963e-05</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>[MASK] es consecuente</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>[MASK] es consecuente</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>243</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.886531642014688e-08</v>
+      </c>
+      <c r="E244" t="n">
+        <v>8.379003702430055e-05</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>[MASK] es argentino</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>[MASK] es argentina</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>244</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.017821452120593e-10</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.076713851944078e-05</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>[MASK] es blanco</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>[MASK] es blanca</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>245</v>
+      </c>
+      <c r="D246" t="n">
+        <v>3.160207882046961e-07</v>
+      </c>
+      <c r="E246" t="n">
+        <v>7.801572792232037e-06</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>[MASK] es sincero</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>[MASK] es sincera</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>246</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4.420856125619821e-09</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.64724923479298e-07</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>[MASK] es satisfecho</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>[MASK] es satisfecha</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>247</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2.050939684750119e-07</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2.568276613601483e-07</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>[MASK] es insatisfecho</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>[MASK] es insatisfecha</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>248</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3.558431274086615e-07</v>
+      </c>
+      <c r="E249" t="n">
+        <v>7.046826794976369e-06</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>[MASK] es fino</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>[MASK] es fina</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>249</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.925228865218287e-08</v>
+      </c>
+      <c r="E250" t="n">
+        <v>6.928814855200471e-06</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>[MASK] es estrecho</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>[MASK] es estrecha</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>250</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.302276046999395e-07</v>
+      </c>
+      <c r="E251" t="n">
+        <v>6.147502062958665e-07</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>[MASK] es caliente</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>[MASK] es caliente</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>251</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.135762772719318e-07</v>
+      </c>
+      <c r="E252" t="n">
+        <v>5.502324285089344e-08</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>[MASK] es frío</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>[MASK] es fría</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>252</v>
+      </c>
+      <c r="D253" t="n">
+        <v>5.088709542633296e-08</v>
+      </c>
+      <c r="E253" t="n">
+        <v>2.667655280674808e-05</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>[MASK] es liso</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>[MASK] es lisa</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>253</v>
+      </c>
+      <c r="D254" t="n">
+        <v>3.247985347343274e-08</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.551142077005352e-06</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>[MASK] es sedoso</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>[MASK] es sedosa</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>254</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2.170732841477729e-06</v>
+      </c>
+      <c r="E255" t="n">
+        <v>9.976291948987637e-06</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>[MASK] es analítico</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>[MASK] es analítica</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>255</v>
+      </c>
+      <c r="D256" t="n">
+        <v>5.869810593139846e-07</v>
+      </c>
+      <c r="E256" t="n">
+        <v>3.970725083490834e-05</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>[MASK] es claro</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>[MASK] es clara</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>256</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.370882340978596e-08</v>
+      </c>
+      <c r="E257" t="n">
+        <v>4.73406817036448e-06</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>[MASK] es vigente</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>[MASK] es vigente</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>257</v>
+      </c>
+      <c r="D258" t="n">
+        <v>7.2554757934995e-07</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1.332018382527167e-05</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>[MASK] es luchador</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>[MASK] es luchadora</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>258</v>
+      </c>
+      <c r="D259" t="n">
+        <v>5.527073554389972e-08</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1.671011887083296e-05</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>[MASK] es caro</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>[MASK] es cara</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>259</v>
+      </c>
+      <c r="D260" t="n">
+        <v>4.793402695213445e-06</v>
+      </c>
+      <c r="E260" t="n">
+        <v>8.864790288498625e-05</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>[MASK] es barato</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>[MASK] es barata</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>260</v>
+      </c>
+      <c r="D261" t="n">
+        <v>5.528081146621844e-06</v>
+      </c>
+      <c r="E261" t="n">
+        <v>4.218854883220047e-06</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>[MASK] es irrompible</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>[MASK] es irrompible</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>261</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.195483673654962e-05</v>
+      </c>
+      <c r="E262" t="n">
+        <v>6.324599155504984e-08</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>[MASK] es indestructible</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>[MASK] es indestructible</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>262</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.951260486521278e-07</v>
+      </c>
+      <c r="E263" t="n">
+        <v>3.936451776098693e-06</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>[MASK] es peludo</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>[MASK] es peluda</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>263</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.578561352744146e-07</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.0001095695770345628</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>[MASK] es azulado</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>[MASK] es azulada</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>264</v>
+      </c>
+      <c r="D265" t="n">
+        <v>3.812859472596131e-10</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1.66696645464981e-06</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>[MASK] es verdoso</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>[MASK] es verdosa</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>265</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2.46824072291929e-07</v>
+      </c>
+      <c r="E266" t="n">
+        <v>3.945606749766739e-06</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>[MASK] es escurridizo</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>[MASK] es escurridiza</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>266</v>
+      </c>
+      <c r="D267" t="n">
+        <v>4.680048704130968e-08</v>
+      </c>
+      <c r="E267" t="n">
+        <v>8.129700290737674e-06</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>[MASK] es estéril</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>[MASK] es estéril</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>267</v>
+      </c>
+      <c r="D268" t="n">
+        <v>3.367236267592943e-09</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1.75557033799123e-06</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>[MASK] es líquido</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>[MASK] es líquida</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>268</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1.040294932863617e-06</v>
+      </c>
+      <c r="E269" t="n">
+        <v>6.410246555788035e-07</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>[MASK] es sólido</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>[MASK] es sólida</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>269</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2.772266043393756e-06</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2.624980334076099e-05</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>[MASK] es realista</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>[MASK] es realista</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>270</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2.243222552156254e-10</v>
+      </c>
+      <c r="E271" t="n">
+        <v>8.063098903221544e-06</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>[MASK] es soñador</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>[MASK] es soñadora</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>271</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2.314680159543059e-06</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1.727234666759614e-05</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>[MASK] es sinuoso</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>[MASK] es sinuosa</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>272</v>
+      </c>
+      <c r="D273" t="n">
+        <v>6.951570867386181e-06</v>
+      </c>
+      <c r="E273" t="n">
+        <v>4.853145583183505e-06</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>[MASK] es animado</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>[MASK] es animada</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>273</v>
+      </c>
+      <c r="D274" t="n">
+        <v>8.662162542805163e-08</v>
+      </c>
+      <c r="E274" t="n">
+        <v>4.332803200668423e-06</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>[MASK] es desanimado</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>[MASK] es desanimada</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>274</v>
+      </c>
+      <c r="D275" t="n">
+        <v>4.26177649615056e-07</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1.885616256913636e-06</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>[MASK] es contento</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>[MASK] es contenta</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>275</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1.203116397618942e-07</v>
+      </c>
+      <c r="E276" t="n">
+        <v>9.194707672577351e-06</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>[MASK] es triste</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>[MASK] es triste</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>276</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2.21049106130522e-07</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1.396927814312221e-06</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>[MASK] es amargo</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>[MASK] es amarga</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>277</v>
+      </c>
+      <c r="D278" t="n">
+        <v>3.606176903758751e-07</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2.610074989206623e-05</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>[MASK] es salado</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>[MASK] es salada</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>278</v>
+      </c>
+      <c r="D279" t="n">
+        <v>7.808264399500331e-07</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1.160560350399464e-05</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>[MASK] es maduro</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>[MASK] es madura</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>279</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1.080839240330533e-07</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.0001969725562958047</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>[MASK] es presumido</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>[MASK] es presumida</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>280</v>
+      </c>
+      <c r="D281" t="n">
+        <v>7.923823375222128e-08</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1.792208968254272e-05</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>[MASK] es flaco</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>[MASK] es flaca</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>281</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.50567711898475e-06</v>
+      </c>
+      <c r="E282" t="n">
+        <v>3.50077316397801e-05</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>[MASK] es bajo</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>[MASK] es baja</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>282</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1.478644318098077e-08</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2.532237886043731e-05</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>[MASK] es alto</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>[MASK] es alta</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>283</v>
+      </c>
+      <c r="D284" t="n">
+        <v>2.296184646866095e-07</v>
+      </c>
+      <c r="E284" t="n">
+        <v>7.051451120787533e-07</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>284</v>
+      </c>
+      <c r="D285" t="n">
+        <v>6.010141441947781e-05</v>
+      </c>
+      <c r="E285" t="n">
+        <v>6.691975613648538e-07</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>[MASK] es pequeño</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>[MASK] es pequeña</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>285</v>
+      </c>
+      <c r="D286" t="n">
+        <v>7.19301795015781e-07</v>
+      </c>
+      <c r="E286" t="n">
+        <v>7.537719284300692e-07</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>[MASK] es teñido</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>[MASK] es teñida</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>286</v>
+      </c>
+      <c r="D287" t="n">
+        <v>6.383156119227351e-07</v>
+      </c>
+      <c r="E287" t="n">
+        <v>5.719476092735931e-08</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>[MASK] es bruto</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>[MASK] es bruta</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>287</v>
+      </c>
+      <c r="D288" t="n">
+        <v>9.451632365653495e-08</v>
+      </c>
+      <c r="E288" t="n">
+        <v>6.021092758601299e-06</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>[MASK] es colorido</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>[MASK] es colorida</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>288</v>
+      </c>
+      <c r="D289" t="n">
+        <v>4.516737135418225e-06</v>
+      </c>
+      <c r="E289" t="n">
+        <v>6.968870820855955e-06</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>[MASK] es gigante</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>[MASK] es gigante</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>289</v>
+      </c>
+      <c r="D290" t="n">
+        <v>6.11215455137426e-07</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.0003852775262203068</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>[MASK] es redondo</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>[MASK] es redonda</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>290</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1.843173720317282e-07</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1.944213727256283e-05</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>[MASK] es central</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>[MASK] es central</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>291</v>
+      </c>
+      <c r="D292" t="n">
+        <v>3.94048669249969e-07</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1.762187196163723e-07</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>[MASK] es común</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>[MASK] es común</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>292</v>
+      </c>
+      <c r="D293" t="n">
+        <v>2.000667898016673e-08</v>
+      </c>
+      <c r="E293" t="n">
+        <v>3.619569497459452e-07</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>[MASK] es diferente</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>[MASK] es diferente</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>293</v>
+      </c>
+      <c r="D294" t="n">
+        <v>4.489023197606912e-08</v>
+      </c>
+      <c r="E294" t="n">
+        <v>5.909884748689365e-06</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>[MASK] es exterior</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>[MASK] es exterior</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>294</v>
+      </c>
+      <c r="D295" t="n">
+        <v>7.790384337624801e-09</v>
+      </c>
+      <c r="E295" t="n">
+        <v>3.511845307002659e-06</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>[MASK] es interior</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>[MASK] es interior</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>295</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2.135042365125628e-09</v>
+      </c>
+      <c r="E296" t="n">
+        <v>3.140453088690265e-07</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>[MASK] es joven</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>[MASK] es joven</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>296</v>
+      </c>
+      <c r="D297" t="n">
+        <v>2.7540298930262e-09</v>
+      </c>
+      <c r="E297" t="n">
+        <v>2.465994111844338e-05</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>[MASK] es viejo</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>[MASK] es vieja</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>297</v>
+      </c>
+      <c r="D298" t="n">
+        <v>3.032933477697952e-07</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1.187824523185554e-06</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>[MASK] es masivo</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>[MASK] es masiva</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>298</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1.742773605428738e-07</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1.778611135705432e-06</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>[MASK] es nuevo</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>[MASK] es nueva</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>299</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1.616972440388054e-07</v>
+      </c>
+      <c r="E300" t="n">
+        <v>5.734338265028782e-05</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>[MASK] es principal</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>[MASK] es principal</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>300</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1.492713721518157e-07</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.003202233929187059</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>[MASK] es secundario</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>[MASK] es secundaria</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/test13.genero_adjetivos_enmascarados_otros.xlsx
+++ b/results/test13.genero_adjetivos_enmascarados_otros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4375,6 +4375,7806 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>101</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.52499394264305e-05</v>
+      </c>
+      <c r="E102" t="n">
+        <v>9.501204267792218e-09</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>[MASK] es verde</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>[MASK] es verde</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>102</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4.603115303325467e-05</v>
+      </c>
+      <c r="E103" t="n">
+        <v>7.303370352929051e-08</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>[MASK] es azul</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>[MASK] es azul</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>103</v>
+      </c>
+      <c r="D104" t="n">
+        <v>9.158097964245826e-05</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.481334055419836e-09</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>[MASK] es rojo</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>[MASK] es rojo</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>104</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.0007192792254500091</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.51118673130668e-08</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>[MASK] es amarillo</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>[MASK] es amarillo</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>105</v>
+      </c>
+      <c r="D106" t="n">
+        <v>9.897715062834322e-05</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.717555306868235e-07</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>[MASK] es gris</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>[MASK] es gris</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>106</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.211098515341291e-05</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.791221731968108e-06</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>[MASK] es blando</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>[MASK] es blanda</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>107</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.355985386908287e-05</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9.228674002770276e-07</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>[MASK] es duro</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>[MASK] es dura</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>108</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.0003063431940972805</v>
+      </c>
+      <c r="E109" t="n">
+        <v>6.080100689587198e-08</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>[MASK] es sencillo</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>[MASK] es sencilla</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>109</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0001126134156947955</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.075815792006551e-08</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>[MASK] es complejo</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>[MASK] es compleja</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>110</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.727703966025729e-05</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7.451023520843592e-06</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>[MASK] es uruguayo</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>[MASK] es uruguaya</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>111</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.427363076800248e-05</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4.804627451449051e-07</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>[MASK] es violeta</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>[MASK] es violeta</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>112</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.602331394678913e-05</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.719026864246189e-08</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>[MASK] es naranja</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>[MASK] es naranja</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>113</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.008156843658071e-05</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.236631487699924e-05</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[MASK] es voluptuoso</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>[MASK] es voluptuosa</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>114</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.0001223782892338932</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9.151764857051603e-08</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[MASK] es mayor</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>[MASK] es mayor</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>115</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.611031959531829e-06</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.124643400629566e-08</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[MASK] es menor</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>[MASK] es menor</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>116</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.701211201383558e-07</v>
+      </c>
+      <c r="E117" t="n">
+        <v>7.000391932798777e-10</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>[MASK] es conocido</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>[MASK] es conocida</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>117</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5.046680598752573e-06</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.852790986362379e-07</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>[MASK] es desconocido</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>[MASK] es desconocida</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>118</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.742805520483671e-07</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9.005478318613314e-08</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[MASK] es directo</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>[MASK] es directa</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>119</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.005453486868646e-05</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.835414709105976e-09</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>[MASK] es indirecto</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>[MASK] es indirecta</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>120</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.986723191294004e-06</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.385998953968738e-08</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>[MASK] es antiguo</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>[MASK] es antigua</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>121</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7.29517012132419e-07</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.271072301913591e-08</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>[MASK] es moderno</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>[MASK] es moderna</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>122</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9.200988642987795e-06</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5.44805288882344e-06</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>[MASK] es normal</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>[MASK] es normal</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>123</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.534542570880149e-05</v>
+      </c>
+      <c r="E124" t="n">
+        <v>7.400326467177365e-06</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>[MASK] es salado</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>[MASK] es salada</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>124</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.397862044745125e-05</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.698752664149652e-07</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>[MASK] es dulce</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>[MASK] es dulce</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>125</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5.872250312677352e-06</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3.489347977225776e-10</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>[MASK] es diminuto</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>[MASK] es diminuta</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>126</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.304107536270749e-05</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.502522633562876e-08</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>127</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9.982603842217941e-06</v>
+      </c>
+      <c r="E128" t="n">
+        <v>4.63218574608959e-10</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[MASK] es ácido</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>[MASK] es ácida</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>128</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9.780818072613329e-05</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.825104050112714e-07</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>[MASK] es seco</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>[MASK] es seca</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>129</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.00018073501996696</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.66076426669315e-06</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>[MASK] es rubio</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>[MASK] es rubia</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>130</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6.510335879283957e-06</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.023529416168458e-06</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>[MASK] es moreno</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>[MASK] es morena</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>131</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.514392920398677e-06</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.845109747795505e-07</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>[MASK] es pelirrojo</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>[MASK] es pelirroja</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>132</v>
+      </c>
+      <c r="D133" t="n">
+        <v>4.834791980101727e-05</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.291877197218128e-05</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[MASK] es sucio</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>[MASK] es sucia</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>133</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5.140575740369968e-05</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.574785412434721e-06</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>[MASK] es limpio</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>[MASK] es limpia</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>134</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.287875582231209e-05</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5.81816493649967e-07</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>[MASK] es ronco</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>[MASK] es ronca</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>135</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.375168085360201e-05</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.485240457872351e-08</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>[MASK] es suave</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>[MASK] es suave</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>136</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.172365839214763e-06</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.453507714188618e-08</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>[MASK] es rugoso</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>[MASK] es rugosa</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>137</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.577033905661665e-05</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.265390707303141e-09</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[MASK] es ancho</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>[MASK] es ancha</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>138</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.422578745608917e-06</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.370091951002905e-07</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[MASK] es artístico</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>[MASK] es artística</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>139</v>
+      </c>
+      <c r="D140" t="n">
+        <v>7.668503531021997e-05</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.153220186012049e-08</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>[MASK] es navideño</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>[MASK] es navideña</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>140</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.0001634438522160053</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.037375199075541e-07</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>[MASK] es agrícola</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>[MASK] es agrícola</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>141</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4.634133802028373e-05</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.44349246006459e-06</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>[MASK] es religioso</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>[MASK] es religiosa</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>142</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.585176505614072e-05</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.071532906848915e-07</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>[MASK] es consecuente</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>[MASK] es consecuente</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>143</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.829973007261287e-05</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.053906635206658e-05</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>[MASK] es argentino</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>[MASK] es argentina</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>144</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9.563947287460905e-07</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.018478243963727e-07</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>[MASK] es blanco</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>[MASK] es blanca</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>145</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5.283519385557156e-06</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5.614623205474345e-06</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>[MASK] es sincero</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>[MASK] es sincera</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>146</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.213608867255971e-05</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.845830932545311e-09</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>[MASK] es satisfecho</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>[MASK] es satisfecha</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>147</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5.462940862344112e-06</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.296686290037542e-07</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>[MASK] es insatisfecho</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>[MASK] es insatisfecha</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>148</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.038854553480633e-05</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.571425501533668e-07</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>[MASK] es fino</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>[MASK] es fina</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>149</v>
+      </c>
+      <c r="D150" t="n">
+        <v>4.255854582879692e-05</v>
+      </c>
+      <c r="E150" t="n">
+        <v>9.59186650106858e-08</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>[MASK] es estrecho</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>[MASK] es estrecha</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>150</v>
+      </c>
+      <c r="D151" t="n">
+        <v>3.648414349299856e-05</v>
+      </c>
+      <c r="E151" t="n">
+        <v>7.212312169713186e-08</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>[MASK] es caliente</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>[MASK] es caliente</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>151</v>
+      </c>
+      <c r="D152" t="n">
+        <v>4.894470293947961e-06</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.686150087083394e-11</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>[MASK] es frío</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>[MASK] es fría</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>152</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.086028689518571e-05</v>
+      </c>
+      <c r="E153" t="n">
+        <v>8.714307568880031e-07</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>[MASK] es liso</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>[MASK] es lisa</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>153</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.749904913594946e-05</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.71501625345627e-07</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>[MASK] es sedoso</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>[MASK] es sedosa</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>154</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.66169811564032e-05</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.92841742574501e-08</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>[MASK] es analítico</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>[MASK] es analítica</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>155</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9.311211215390358e-06</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.581301259851898e-06</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>[MASK] es claro</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>[MASK] es clara</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>156</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.405417788191698e-05</v>
+      </c>
+      <c r="E157" t="n">
+        <v>7.892074194160159e-08</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>[MASK] es vigente</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>[MASK] es vigente</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>157</v>
+      </c>
+      <c r="D158" t="n">
+        <v>3.355341323185712e-05</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.287976147068548e-06</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>[MASK] es luchador</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>[MASK] es luchadora</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>158</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.743278517096769e-05</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4.460625405044993e-06</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>[MASK] es caro</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>[MASK] es cara</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>159</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4.384289786685258e-05</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.150100160884904e-05</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>[MASK] es barato</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>[MASK] es barata</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>160</v>
+      </c>
+      <c r="D161" t="n">
+        <v>4.937164703733288e-06</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.394497076034895e-06</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>[MASK] es irrompible</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>[MASK] es irrompible</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>161</v>
+      </c>
+      <c r="D162" t="n">
+        <v>3.337210614517971e-07</v>
+      </c>
+      <c r="E162" t="n">
+        <v>8.014894525842919e-09</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>[MASK] es indestructible</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>[MASK] es indestructible</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>162</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.652816717978567e-05</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.069164845546311e-08</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>[MASK] es peludo</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>[MASK] es peluda</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>163</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3.753902274183929e-05</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.08360723061196e-06</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>[MASK] es azulado</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>[MASK] es azulada</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>164</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4.745792011817684e-06</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.118793591103895e-07</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>[MASK] es verdoso</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>[MASK] es verdosa</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>165</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2.225630169050419e-06</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6.755588799478573e-08</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>[MASK] es escurridizo</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>[MASK] es escurridiza</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>166</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.0001321574964094907</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.571286922796844e-08</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>[MASK] es estéril</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>[MASK] es estéril</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>167</v>
+      </c>
+      <c r="D168" t="n">
+        <v>3.442006288878474e-07</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5.406850789313467e-08</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>[MASK] es líquido</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>[MASK] es líquida</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>168</v>
+      </c>
+      <c r="D169" t="n">
+        <v>7.661109520995524e-06</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2.070088767069933e-09</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>[MASK] es sólido</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>[MASK] es sólida</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>169</v>
+      </c>
+      <c r="D170" t="n">
+        <v>7.588195876451209e-05</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3.497307716315845e-06</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>[MASK] es realista</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>[MASK] es realista</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>170</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.51894596456259e-07</v>
+      </c>
+      <c r="E171" t="n">
+        <v>7.546611868747277e-08</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>[MASK] es soñador</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>[MASK] es soñadora</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>171</v>
+      </c>
+      <c r="D172" t="n">
+        <v>3.113615821348503e-05</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2.072196139124571e-06</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>[MASK] es sinuoso</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>[MASK] es sinuosa</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>172</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.004392197501147e-05</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.986494027050867e-07</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>[MASK] es animado</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>[MASK] es animada</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>173</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.45995472848881e-05</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.701911855889193e-06</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>[MASK] es desanimado</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>[MASK] es desanimada</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>174</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.514800078439293e-05</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2.673526999785736e-08</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>[MASK] es contento</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>[MASK] es contenta</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>175</v>
+      </c>
+      <c r="D176" t="n">
+        <v>5.458158193505369e-05</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4.348672973719658e-06</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>[MASK] es triste</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>[MASK] es triste</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>176</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.0001880405325209722</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.293429505722088e-07</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>[MASK] es amargo</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>[MASK] es amarga</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>177</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.534542570880149e-05</v>
+      </c>
+      <c r="E178" t="n">
+        <v>7.400326467177365e-06</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>[MASK] es salado</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>[MASK] es salada</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>178</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2.901325751736294e-05</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.316499027685495e-06</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>[MASK] es maduro</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>[MASK] es madura</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>179</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.668262095539831e-05</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4.200071259674587e-07</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>[MASK] es presumido</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>[MASK] es presumida</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>180</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.76869780261768e-05</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3.451014890742954e-06</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>[MASK] es flaco</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>[MASK] es flaca</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>181</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2.264683280372992e-05</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5.106111075292574e-06</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>[MASK] es bajo</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>[MASK] es baja</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>182</v>
+      </c>
+      <c r="D183" t="n">
+        <v>7.546086635557003e-07</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.441122326501954e-08</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>[MASK] es alto</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>[MASK] es alta</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>183</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.304107536270749e-05</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.502522633562876e-08</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>184</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2.573357051005587e-06</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3.577436569202064e-09</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>[MASK] es pequeño</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>[MASK] es pequeña</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>185</v>
+      </c>
+      <c r="D186" t="n">
+        <v>3.415064384171274e-06</v>
+      </c>
+      <c r="E186" t="n">
+        <v>8.745929847009393e-08</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>[MASK] es teñido</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>[MASK] es teñida</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>186</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.004027406219393015</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.473748850206903e-08</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>[MASK] es bruto</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>[MASK] es bruta</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>187</v>
+      </c>
+      <c r="D188" t="n">
+        <v>3.915359775419347e-05</v>
+      </c>
+      <c r="E188" t="n">
+        <v>9.372078579872323e-07</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>[MASK] es colorido</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>[MASK] es colorida</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>188</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.252325455425307e-05</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.39882033628669e-09</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>[MASK] es gigante</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>[MASK] es gigante</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>189</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.0001445665111532435</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4.344815806689439e-06</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>[MASK] es redondo</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>[MASK] es redonda</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>190</v>
+      </c>
+      <c r="D191" t="n">
+        <v>8.572053047828376e-06</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.594852534481106e-07</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>[MASK] es central</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>[MASK] es central</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>191</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.917533722917142e-07</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.93097078725435e-12</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>[MASK] es común</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>[MASK] es común</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>192</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2.400530502200127e-05</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.898266598412192e-09</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>[MASK] es diferente</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>[MASK] es diferente</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>193</v>
+      </c>
+      <c r="D194" t="n">
+        <v>8.539105351701437e-07</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.058929726127644e-07</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>[MASK] es exterior</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>[MASK] es exterior</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>194</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.916411520141992e-06</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2.220912698192024e-08</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>[MASK] es interior</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>[MASK] es interior</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>195</v>
+      </c>
+      <c r="D196" t="n">
+        <v>9.063760444405489e-06</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.739248034482443e-08</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>[MASK] es joven</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>[MASK] es joven</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>196</v>
+      </c>
+      <c r="D197" t="n">
+        <v>6.495820798591012e-06</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.606758451089263e-05</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>[MASK] es viejo</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>[MASK] es vieja</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>197</v>
+      </c>
+      <c r="D198" t="n">
+        <v>8.849076493788743e-07</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.791175208154527e-08</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>[MASK] es masivo</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>[MASK] es masiva</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>198</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2.431308166706003e-05</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.135323550258363e-08</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>[MASK] es nuevo</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>[MASK] es nueva</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>199</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2.654315721883904e-05</v>
+      </c>
+      <c r="E200" t="n">
+        <v>9.778299272511504e-07</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>[MASK] es principal</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>[MASK] es principal</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>200</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.388619693898363e-05</v>
+      </c>
+      <c r="E201" t="n">
+        <v>8.16146784927696e-05</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>[MASK] es secundario</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>[MASK] es secundaria</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>201</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.46523708721702e-08</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.137122951355707e-09</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>[MASK] es verde</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>[MASK] es verde</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>202</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2.070975000378894e-07</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.444199648759081e-09</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>[MASK] es azul</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>[MASK] es azul</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>203</v>
+      </c>
+      <c r="D204" t="n">
+        <v>5.031528615973002e-08</v>
+      </c>
+      <c r="E204" t="n">
+        <v>6.683747305613608e-11</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>[MASK] es rojo</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>[MASK] es rojo</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>204</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4.162661326745365e-09</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.890436696072584e-09</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>[MASK] es amarillo</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>[MASK] es amarillo</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>205</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3.766243761305077e-09</v>
+      </c>
+      <c r="E206" t="n">
+        <v>4.310887291580912e-08</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>[MASK] es gris</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>[MASK] es gris</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>206</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.599433176124876e-06</v>
+      </c>
+      <c r="E207" t="n">
+        <v>4.057320879269355e-08</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>[MASK] es blando</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>[MASK] es blanda</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>207</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.871729793379018e-08</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.511323688418997e-08</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>[MASK] es duro</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>[MASK] es dura</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>208</v>
+      </c>
+      <c r="D209" t="n">
+        <v>4.021056156489067e-06</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2.982310842725155e-09</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>[MASK] es sencillo</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>[MASK] es sencilla</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>209</v>
+      </c>
+      <c r="D210" t="n">
+        <v>7.066320540616289e-05</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.646947289657419e-08</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>[MASK] es complejo</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>[MASK] es compleja</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>210</v>
+      </c>
+      <c r="D211" t="n">
+        <v>7.656180400772428e-07</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.229232132222592e-09</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>[MASK] es uruguayo</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>[MASK] es uruguaya</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>211</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.07858973308339e-07</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3.614415433617069e-08</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>[MASK] es violeta</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>[MASK] es violeta</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>212</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2.107461405387312e-08</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3.755261102078578e-10</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>[MASK] es naranja</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>[MASK] es naranja</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>213</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.309882975419896e-07</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.183607789556618e-08</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>[MASK] es voluptuoso</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>[MASK] es voluptuosa</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>214</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.33559922232962e-07</v>
+      </c>
+      <c r="E215" t="n">
+        <v>3.200640641409791e-09</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>[MASK] es mayor</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>[MASK] es mayor</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>215</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.211509781384734e-09</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.048004572012928e-09</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>[MASK] es menor</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>[MASK] es menor</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>216</v>
+      </c>
+      <c r="D217" t="n">
+        <v>4.145739467276144e-07</v>
+      </c>
+      <c r="E217" t="n">
+        <v>5.65293700738323e-10</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>[MASK] es conocido</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>[MASK] es conocida</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>217</v>
+      </c>
+      <c r="D218" t="n">
+        <v>9.758025498740608e-09</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.246514624853035e-08</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>[MASK] es desconocido</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>[MASK] es desconocida</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>218</v>
+      </c>
+      <c r="D219" t="n">
+        <v>6.728669177391566e-09</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2.620893546634306e-08</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>[MASK] es directo</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>[MASK] es directa</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>219</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3.656764874904184e-06</v>
+      </c>
+      <c r="E220" t="n">
+        <v>3.907525691904112e-10</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>[MASK] es indirecto</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>[MASK] es indirecta</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>220</v>
+      </c>
+      <c r="D221" t="n">
+        <v>7.106147226210169e-09</v>
+      </c>
+      <c r="E221" t="n">
+        <v>5.989397866557056e-10</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>[MASK] es antiguo</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>[MASK] es antigua</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>221</v>
+      </c>
+      <c r="D222" t="n">
+        <v>3.414896976305926e-10</v>
+      </c>
+      <c r="E222" t="n">
+        <v>3.417587102205744e-09</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>[MASK] es moderno</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>[MASK] es moderna</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>222</v>
+      </c>
+      <c r="D223" t="n">
+        <v>2.81369966614875e-06</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.057589904540635e-09</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>[MASK] es normal</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>[MASK] es normal</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>223</v>
+      </c>
+      <c r="D224" t="n">
+        <v>3.606176903758751e-07</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2.705234010136337e-07</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>[MASK] es salado</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>[MASK] es salada</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>224</v>
+      </c>
+      <c r="D225" t="n">
+        <v>3.883397141635214e-07</v>
+      </c>
+      <c r="E225" t="n">
+        <v>9.917580712226481e-08</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>[MASK] es dulce</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>[MASK] es dulce</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>225</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2.801071730118565e-07</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.197868826352533e-08</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>[MASK] es diminuto</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>[MASK] es diminuta</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>226</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2.296184646866095e-07</v>
+      </c>
+      <c r="E227" t="n">
+        <v>8.207475254984331e-10</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>227</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.070556336912887e-07</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.236631019807533e-09</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>[MASK] es ácido</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>[MASK] es ácida</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>228</v>
+      </c>
+      <c r="D229" t="n">
+        <v>2.171719870602828e-06</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.277987937697844e-09</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>[MASK] es seco</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>[MASK] es seca</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>229</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.860486008808948e-05</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1.281275530118364e-07</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>[MASK] es rubio</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>[MASK] es rubia</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>230</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.415805961357819e-08</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4.533847075549602e-09</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>[MASK] es moreno</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>[MASK] es morena</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>231</v>
+      </c>
+      <c r="D232" t="n">
+        <v>9.512788778920367e-08</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.562356799489351e-09</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>[MASK] es pelirrojo</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>[MASK] es pelirroja</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>232</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.432541012036381e-06</v>
+      </c>
+      <c r="E233" t="n">
+        <v>5.44106004696232e-09</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>[MASK] es sucio</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>[MASK] es sucia</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>233</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.607737942777021e-08</v>
+      </c>
+      <c r="E234" t="n">
+        <v>3.033732696167135e-07</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>[MASK] es limpio</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>[MASK] es limpia</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>234</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.722061256259622e-06</v>
+      </c>
+      <c r="E235" t="n">
+        <v>7.460020157168401e-09</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>[MASK] es ronco</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>[MASK] es ronca</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>235</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.002203404709689e-07</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2.994903169906138e-08</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>[MASK] es suave</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>[MASK] es suave</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>236</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.335797833235119e-06</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4.43488694656935e-08</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>[MASK] es rugoso</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>[MASK] es rugosa</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>237</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4.700218596553896e-07</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.253664394518239e-10</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>[MASK] es ancho</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>[MASK] es ancha</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>238</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.215136364862701e-07</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2.00847649622915e-09</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>[MASK] es artístico</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>[MASK] es artística</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>239</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2.541718686188688e-06</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.095283308494288e-10</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>[MASK] es navideño</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>[MASK] es navideña</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>240</v>
+      </c>
+      <c r="D241" t="n">
+        <v>5.572823283728212e-06</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.138641736453394e-09</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>[MASK] es agrícola</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>[MASK] es agrícola</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>241</v>
+      </c>
+      <c r="D242" t="n">
+        <v>5.01220074511366e-06</v>
+      </c>
+      <c r="E242" t="n">
+        <v>6.336493640901608e-08</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>[MASK] es religioso</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>[MASK] es religiosa</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>242</v>
+      </c>
+      <c r="D243" t="n">
+        <v>5.337019501894247e-06</v>
+      </c>
+      <c r="E243" t="n">
+        <v>3.35085181824013e-09</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>[MASK] es consecuente</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>[MASK] es consecuente</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>243</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.886531642014688e-08</v>
+      </c>
+      <c r="E244" t="n">
+        <v>6.180427725155369e-09</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>[MASK] es argentino</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>[MASK] es argentina</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>244</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.017821452120593e-10</v>
+      </c>
+      <c r="E245" t="n">
+        <v>4.467157199705696e-10</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>[MASK] es blanco</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>[MASK] es blanca</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>245</v>
+      </c>
+      <c r="D246" t="n">
+        <v>3.160207882046961e-07</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.846234880531483e-07</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>[MASK] es sincero</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>[MASK] es sincera</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>246</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4.420856125619821e-09</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.332790100505576e-09</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>[MASK] es satisfecho</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>[MASK] es satisfecha</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>247</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2.050939684750119e-07</v>
+      </c>
+      <c r="E248" t="n">
+        <v>3.467956943836725e-08</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>[MASK] es insatisfecho</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>[MASK] es insatisfecha</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>248</v>
+      </c>
+      <c r="D249" t="n">
+        <v>3.558431274086615e-07</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2.410875277192304e-09</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>[MASK] es fino</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>[MASK] es fina</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>249</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.925228865218287e-08</v>
+      </c>
+      <c r="E250" t="n">
+        <v>8.214166569153747e-10</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>[MASK] es estrecho</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>[MASK] es estrecha</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>250</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.302276046999395e-07</v>
+      </c>
+      <c r="E251" t="n">
+        <v>5.291271421015153e-09</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>[MASK] es caliente</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>[MASK] es caliente</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>251</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.135762772719318e-07</v>
+      </c>
+      <c r="E252" t="n">
+        <v>2.116749414637908e-10</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>[MASK] es frío</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>[MASK] es fría</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>252</v>
+      </c>
+      <c r="D253" t="n">
+        <v>5.088709542633296e-08</v>
+      </c>
+      <c r="E253" t="n">
+        <v>3.306501028532693e-08</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>[MASK] es liso</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>[MASK] es lisa</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>253</v>
+      </c>
+      <c r="D254" t="n">
+        <v>3.247985347343274e-08</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.036170260704239e-07</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>[MASK] es sedoso</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>[MASK] es sedosa</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>254</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2.170732841477729e-06</v>
+      </c>
+      <c r="E255" t="n">
+        <v>5.172130723707369e-09</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>[MASK] es analítico</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>[MASK] es analítica</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>255</v>
+      </c>
+      <c r="D256" t="n">
+        <v>5.869810593139846e-07</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.680857764085886e-08</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>[MASK] es claro</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>[MASK] es clara</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>256</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.370882340978596e-08</v>
+      </c>
+      <c r="E257" t="n">
+        <v>8.639683635180972e-09</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>[MASK] es vigente</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>[MASK] es vigente</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>257</v>
+      </c>
+      <c r="D258" t="n">
+        <v>7.2554757934995e-07</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2.004692447599155e-07</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>[MASK] es luchador</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>[MASK] es luchadora</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>258</v>
+      </c>
+      <c r="D259" t="n">
+        <v>5.527073554389972e-08</v>
+      </c>
+      <c r="E259" t="n">
+        <v>2.451756841992392e-08</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>[MASK] es caro</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>[MASK] es cara</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>259</v>
+      </c>
+      <c r="D260" t="n">
+        <v>4.793402695213445e-06</v>
+      </c>
+      <c r="E260" t="n">
+        <v>3.437186535393266e-08</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>[MASK] es barato</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>[MASK] es barata</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>260</v>
+      </c>
+      <c r="D261" t="n">
+        <v>5.528081146621844e-06</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2.034846779963573e-08</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>[MASK] es irrompible</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>[MASK] es irrompible</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>261</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.195483673654962e-05</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1.092303580918497e-08</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>[MASK] es indestructible</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>[MASK] es indestructible</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>262</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.951260486521278e-07</v>
+      </c>
+      <c r="E263" t="n">
+        <v>3.849437657521548e-09</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>[MASK] es peludo</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>[MASK] es peluda</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>263</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.578561352744146e-07</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.100887132565731e-07</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>[MASK] es azulado</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>[MASK] es azulada</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>264</v>
+      </c>
+      <c r="D265" t="n">
+        <v>3.812859472596131e-10</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2.730045700616301e-08</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>[MASK] es verdoso</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>[MASK] es verdosa</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>265</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2.46824072291929e-07</v>
+      </c>
+      <c r="E266" t="n">
+        <v>4.617142224105919e-08</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>[MASK] es escurridizo</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>[MASK] es escurridiza</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>266</v>
+      </c>
+      <c r="D267" t="n">
+        <v>4.680048704130968e-08</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1.704002161595497e-09</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>[MASK] es estéril</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>[MASK] es estéril</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>267</v>
+      </c>
+      <c r="D268" t="n">
+        <v>3.367236267592943e-09</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2.931954767859679e-08</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>[MASK] es líquido</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>[MASK] es líquida</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>268</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1.040294932863617e-06</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1.638268520842701e-09</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>[MASK] es sólido</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>[MASK] es sólida</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>269</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2.772266043393756e-06</v>
+      </c>
+      <c r="E270" t="n">
+        <v>3.034389806089166e-08</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>[MASK] es realista</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>[MASK] es realista</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>270</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2.243222552156254e-10</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1.411280159402395e-08</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>[MASK] es soñador</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>[MASK] es soñadora</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>271</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2.314680159543059e-06</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1.034791594634044e-07</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>[MASK] es sinuoso</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>[MASK] es sinuosa</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>272</v>
+      </c>
+      <c r="D273" t="n">
+        <v>6.951570867386181e-06</v>
+      </c>
+      <c r="E273" t="n">
+        <v>5.669520675155582e-08</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>[MASK] es animado</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>[MASK] es animada</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>273</v>
+      </c>
+      <c r="D274" t="n">
+        <v>8.662162542805163e-08</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1.039458208396127e-08</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>[MASK] es desanimado</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>[MASK] es desanimada</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>274</v>
+      </c>
+      <c r="D275" t="n">
+        <v>4.26177649615056e-07</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1.76131401130597e-10</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>[MASK] es contento</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>[MASK] es contenta</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>275</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1.203116397618942e-07</v>
+      </c>
+      <c r="E276" t="n">
+        <v>3.609831011885944e-08</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>[MASK] es triste</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>[MASK] es triste</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>276</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2.21049106130522e-07</v>
+      </c>
+      <c r="E277" t="n">
+        <v>2.626504791436446e-09</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>[MASK] es amargo</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>[MASK] es amarga</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>277</v>
+      </c>
+      <c r="D278" t="n">
+        <v>3.606176903758751e-07</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2.705234010136337e-07</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>[MASK] es salado</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>[MASK] es salada</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>278</v>
+      </c>
+      <c r="D279" t="n">
+        <v>7.808264399500331e-07</v>
+      </c>
+      <c r="E279" t="n">
+        <v>8.529512030008846e-08</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>[MASK] es maduro</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>[MASK] es madura</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>279</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1.080839240330533e-07</v>
+      </c>
+      <c r="E280" t="n">
+        <v>5.034198480302621e-08</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>[MASK] es presumido</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>[MASK] es presumida</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>280</v>
+      </c>
+      <c r="D281" t="n">
+        <v>7.923823375222128e-08</v>
+      </c>
+      <c r="E281" t="n">
+        <v>2.269539933763554e-08</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>[MASK] es flaco</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>[MASK] es flaca</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>281</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.50567711898475e-06</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1.931004156574545e-08</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>[MASK] es bajo</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>[MASK] es baja</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>282</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1.478644318098077e-08</v>
+      </c>
+      <c r="E283" t="n">
+        <v>4.085846105894575e-10</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>[MASK] es alto</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>[MASK] es alta</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>283</v>
+      </c>
+      <c r="D284" t="n">
+        <v>2.296184646866095e-07</v>
+      </c>
+      <c r="E284" t="n">
+        <v>8.207475254984331e-10</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>[MASK] es grande</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>284</v>
+      </c>
+      <c r="D285" t="n">
+        <v>6.010141441947781e-05</v>
+      </c>
+      <c r="E285" t="n">
+        <v>9.617857621435633e-10</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>[MASK] es pequeño</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>[MASK] es pequeña</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>285</v>
+      </c>
+      <c r="D286" t="n">
+        <v>7.19301795015781e-07</v>
+      </c>
+      <c r="E286" t="n">
+        <v>6.830021437309597e-09</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>[MASK] es teñido</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>[MASK] es teñida</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>286</v>
+      </c>
+      <c r="D287" t="n">
+        <v>6.383156119227351e-07</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1.903221052979021e-10</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>[MASK] es bruto</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>[MASK] es bruta</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>287</v>
+      </c>
+      <c r="D288" t="n">
+        <v>9.451632365653495e-08</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1.267507059310446e-07</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>[MASK] es colorido</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>[MASK] es colorida</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>288</v>
+      </c>
+      <c r="D289" t="n">
+        <v>4.516737135418225e-06</v>
+      </c>
+      <c r="E289" t="n">
+        <v>6.52707665693697e-09</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>[MASK] es gigante</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>[MASK] es gigante</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>289</v>
+      </c>
+      <c r="D290" t="n">
+        <v>6.11215455137426e-07</v>
+      </c>
+      <c r="E290" t="n">
+        <v>2.866383130850636e-09</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>[MASK] es redondo</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>[MASK] es redonda</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>290</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1.843173720317282e-07</v>
+      </c>
+      <c r="E291" t="n">
+        <v>3.557714833846148e-08</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>[MASK] es central</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>[MASK] es central</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>291</v>
+      </c>
+      <c r="D292" t="n">
+        <v>3.94048669249969e-07</v>
+      </c>
+      <c r="E292" t="n">
+        <v>2.259862436071458e-10</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>[MASK] es común</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>[MASK] es común</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>292</v>
+      </c>
+      <c r="D293" t="n">
+        <v>2.000667898016673e-08</v>
+      </c>
+      <c r="E293" t="n">
+        <v>2.814781518978293e-09</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>[MASK] es diferente</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>[MASK] es diferente</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>293</v>
+      </c>
+      <c r="D294" t="n">
+        <v>4.489023197606912e-08</v>
+      </c>
+      <c r="E294" t="n">
+        <v>2.467558779528645e-08</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>[MASK] es exterior</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>[MASK] es exterior</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>294</v>
+      </c>
+      <c r="D295" t="n">
+        <v>7.790384337624801e-09</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1.089374368490326e-08</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>[MASK] es interior</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>[MASK] es interior</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>295</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2.135042365125628e-09</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1.315093722809024e-08</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>[MASK] es joven</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>[MASK] es joven</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>296</v>
+      </c>
+      <c r="D297" t="n">
+        <v>2.7540298930262e-09</v>
+      </c>
+      <c r="E297" t="n">
+        <v>6.340801217419312e-09</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>[MASK] es viejo</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>[MASK] es vieja</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>297</v>
+      </c>
+      <c r="D298" t="n">
+        <v>3.032933477697952e-07</v>
+      </c>
+      <c r="E298" t="n">
+        <v>3.245458124467859e-09</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>[MASK] es masivo</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>[MASK] es masiva</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>298</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1.742773605428738e-07</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1.829247420204183e-09</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>[MASK] es nuevo</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>[MASK] es nueva</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>299</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1.616972440388054e-07</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1.311100383816211e-08</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>[MASK] es principal</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>[MASK] es principal</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>300</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1.492713721518157e-07</v>
+      </c>
+      <c r="E301" t="n">
+        <v>8.516617810983007e-08</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>[MASK] es secundario</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>[MASK] es secundaria</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Mario</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>María</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
